--- a/data/financial_statements/sofp/AOS.xlsx
+++ b/data/financial_statements/sofp/AOS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>417000000</v>
+        <v>417100000</v>
       </c>
       <c r="C2">
-        <v>459000000</v>
+        <v>459400000</v>
       </c>
       <c r="D2">
-        <v>579000000</v>
+        <v>579400000</v>
       </c>
       <c r="E2">
-        <v>631000000</v>
+        <v>631400000</v>
       </c>
       <c r="F2">
-        <v>685000000</v>
+        <v>685200000</v>
       </c>
       <c r="G2">
         <v>581900000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>564000000</v>
+        <v>564200000</v>
       </c>
       <c r="C3">
-        <v>622000000</v>
+        <v>621500000</v>
       </c>
       <c r="D3">
-        <v>608000000</v>
+        <v>608300000</v>
       </c>
       <c r="E3">
-        <v>634000000</v>
+        <v>634400000</v>
       </c>
       <c r="F3">
-        <v>624000000</v>
+        <v>623800000</v>
       </c>
       <c r="G3">
         <v>607000000</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>526000000</v>
+        <v>525600000</v>
       </c>
       <c r="C4">
         <v>493000000</v>
       </c>
       <c r="D4">
-        <v>489000000</v>
+        <v>488700000</v>
       </c>
       <c r="E4">
-        <v>448000000</v>
+        <v>447700000</v>
       </c>
       <c r="F4">
-        <v>358000000</v>
+        <v>357700000</v>
       </c>
       <c r="G4">
         <v>330400000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>63000000</v>
+        <v>62700000</v>
       </c>
       <c r="C5">
-        <v>57000000</v>
+        <v>57300000</v>
       </c>
       <c r="D5">
         <v>45000000</v>
       </c>
       <c r="E5">
-        <v>39000000</v>
+        <v>39100000</v>
       </c>
       <c r="F5">
-        <v>71000000</v>
+        <v>71400000</v>
       </c>
       <c r="G5">
         <v>66400000</v>
@@ -1099,23 +1210,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>1570000000</v>
+        <v>1569600000</v>
       </c>
       <c r="C6">
-        <v>1631000000</v>
+        <v>1631200000</v>
       </c>
       <c r="D6">
-        <v>1721000000</v>
+        <v>1721400000</v>
       </c>
       <c r="E6">
-        <v>1753000000</v>
+        <v>1752600000</v>
       </c>
       <c r="F6">
-        <v>1738000000</v>
+        <v>1738100000</v>
       </c>
       <c r="G6">
         <v>1585700000</v>
@@ -1221,23 +1332,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>615000000</v>
+        <v>583600000</v>
       </c>
       <c r="C7">
-        <v>624000000</v>
+        <v>592700000</v>
       </c>
       <c r="D7">
-        <v>637000000</v>
+        <v>602800000</v>
       </c>
       <c r="E7">
-        <v>639000000</v>
+        <v>606700000</v>
       </c>
       <c r="F7">
-        <v>579000000</v>
+        <v>539500000</v>
       </c>
       <c r="G7">
         <v>539700000</v>
@@ -1343,28 +1454,28 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="L8">
         <v>5000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>969000000</v>
+        <v>969100000</v>
       </c>
       <c r="C9">
-        <v>985000000</v>
+        <v>984900000</v>
       </c>
       <c r="D9">
-        <v>989000000</v>
+        <v>989200000</v>
       </c>
       <c r="E9">
-        <v>993000000</v>
+        <v>992600000</v>
       </c>
       <c r="F9">
         <v>867000000</v>
@@ -1473,23 +1584,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>78000000</v>
+        <v>78300000</v>
       </c>
       <c r="C10">
-        <v>82000000</v>
+        <v>81500000</v>
       </c>
       <c r="D10">
-        <v>88000000</v>
+        <v>87600000</v>
       </c>
       <c r="E10">
         <v>90000000</v>
       </c>
       <c r="F10">
-        <v>116000000</v>
+        <v>116100000</v>
       </c>
       <c r="G10">
         <v>106900000</v>
@@ -1595,8 +1706,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1662300000</v>
@@ -1717,20 +1828,20 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>3232000000</v>
+        <v>3231900000</v>
       </c>
       <c r="C12">
-        <v>3321000000</v>
+        <v>3321400000</v>
       </c>
       <c r="D12">
-        <v>3435000000</v>
+        <v>3434900000</v>
       </c>
       <c r="E12">
-        <v>3474000000</v>
+        <v>3474400000</v>
       </c>
       <c r="F12">
         <v>3300000000</v>
@@ -1839,23 +1950,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>596000000</v>
+        <v>595600000</v>
       </c>
       <c r="C13">
-        <v>625000000</v>
+        <v>624500000</v>
       </c>
       <c r="D13">
-        <v>659000000</v>
+        <v>658700000</v>
       </c>
       <c r="E13">
-        <v>746000000</v>
+        <v>745900000</v>
       </c>
       <c r="F13">
-        <v>650000000</v>
+        <v>649600000</v>
       </c>
       <c r="G13">
         <v>612400000</v>
@@ -1961,8 +2072,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>234800000</v>
@@ -2083,23 +2194,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>16000000</v>
+        <v>6800000</v>
       </c>
       <c r="C15">
-        <v>17000000</v>
+        <v>6800000</v>
       </c>
       <c r="D15">
-        <v>18000000</v>
+        <v>6800000</v>
       </c>
       <c r="E15">
-        <v>19000000</v>
+        <v>6800000</v>
       </c>
       <c r="F15">
-        <v>19000000</v>
+        <v>6800000</v>
       </c>
       <c r="G15">
         <v>6800000</v>
@@ -2199,31 +2310,31 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AN16">
         <v>13400000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>289000000</v>
+        <v>63700000</v>
       </c>
       <c r="C17">
-        <v>287000000</v>
+        <v>65100000</v>
       </c>
       <c r="D17">
-        <v>326000000</v>
+        <v>68200000</v>
       </c>
       <c r="E17">
-        <v>354000000</v>
+        <v>70900000</v>
       </c>
       <c r="F17">
-        <v>315000000</v>
+        <v>54100000</v>
       </c>
       <c r="G17">
         <v>49800000</v>
@@ -2329,23 +2440,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>901000000</v>
+        <v>900900000</v>
       </c>
       <c r="C18">
-        <v>928000000</v>
+        <v>928300000</v>
       </c>
       <c r="D18">
-        <v>1002000000</v>
+        <v>1002100000</v>
       </c>
       <c r="E18">
-        <v>1119000000</v>
+        <v>1118800000</v>
       </c>
       <c r="F18">
-        <v>983000000</v>
+        <v>982600000</v>
       </c>
       <c r="G18">
         <v>907000000</v>
@@ -2451,23 +2562,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>305000000</v>
+        <v>281000000</v>
       </c>
       <c r="C19">
-        <v>315000000</v>
+        <v>291600000</v>
       </c>
       <c r="D19">
-        <v>313000000</v>
+        <v>288600000</v>
       </c>
       <c r="E19">
-        <v>212000000</v>
+        <v>189900000</v>
       </c>
       <c r="F19">
-        <v>131000000</v>
+        <v>99600000</v>
       </c>
       <c r="G19">
         <v>99600000</v>
@@ -2573,8 +2684,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E20">
         <v>15900000</v>
@@ -2677,8 +2788,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AG21">
         <v>21400000</v>
@@ -2688,23 +2799,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>279000000</v>
+        <v>278700000</v>
       </c>
       <c r="C22">
         <v>286000000</v>
       </c>
       <c r="D22">
-        <v>311000000</v>
+        <v>310700000</v>
       </c>
       <c r="E22">
-        <v>311000000</v>
+        <v>311200000</v>
       </c>
       <c r="F22">
-        <v>290000000</v>
+        <v>289900000</v>
       </c>
       <c r="G22">
         <v>283400000</v>
@@ -2810,8 +2921,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>583200000</v>
@@ -2932,23 +3043,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1484000000</v>
+        <v>1484100000</v>
       </c>
       <c r="C24">
-        <v>1529000000</v>
+        <v>1528900000</v>
       </c>
       <c r="D24">
         <v>1626000000</v>
       </c>
       <c r="E24">
-        <v>1642000000</v>
+        <v>1642200000</v>
       </c>
       <c r="F24">
-        <v>1404000000</v>
+        <v>1403500000</v>
       </c>
       <c r="G24">
         <v>1323900000</v>
@@ -3054,8 +3165,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>554900000</v>
@@ -3176,23 +3287,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>295000000</v>
       </c>
       <c r="C26">
-        <v>295000000</v>
+        <v>295200000</v>
       </c>
       <c r="D26">
-        <v>295000000</v>
+        <v>295200000</v>
       </c>
       <c r="E26">
-        <v>295000000</v>
+        <v>295200000</v>
       </c>
       <c r="F26">
-        <v>295000000</v>
+        <v>295300000</v>
       </c>
       <c r="G26">
         <v>295300000</v>
@@ -3298,23 +3409,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>3051000000</v>
+        <v>3051100000</v>
       </c>
       <c r="C27">
-        <v>2985000000</v>
+        <v>2984600000</v>
       </c>
       <c r="D27">
-        <v>2902000000</v>
+        <v>2902200000</v>
       </c>
       <c r="E27">
-        <v>2827000000</v>
+        <v>2826600000</v>
       </c>
       <c r="F27">
-        <v>2732000000</v>
+        <v>2731700000</v>
       </c>
       <c r="G27">
         <v>2641600000</v>
@@ -3420,8 +3531,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1785100000</v>
@@ -3542,23 +3653,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>1748000000</v>
+        <v>1747800000</v>
       </c>
       <c r="C29">
-        <v>1793000000</v>
+        <v>1792500000</v>
       </c>
       <c r="D29">
-        <v>1809000000</v>
+        <v>1808900000</v>
       </c>
       <c r="E29">
-        <v>1832000000</v>
+        <v>1832200000</v>
       </c>
       <c r="F29">
-        <v>1897000000</v>
+        <v>1896500000</v>
       </c>
       <c r="G29">
         <v>1816300000</v>
@@ -3664,23 +3775,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>1748000000</v>
+        <v>1747800000</v>
       </c>
       <c r="C30">
-        <v>1793000000</v>
+        <v>1792500000</v>
       </c>
       <c r="D30">
-        <v>1809000000</v>
+        <v>1808900000</v>
       </c>
       <c r="E30">
-        <v>1832000000</v>
+        <v>1832200000</v>
       </c>
       <c r="F30">
-        <v>1897000000</v>
+        <v>1896500000</v>
       </c>
       <c r="G30">
         <v>1816300000</v>
@@ -3786,8 +3897,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>3231900000</v>
@@ -3908,8 +4019,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>152776000</v>
@@ -4030,8 +4141,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>778700000</v>
@@ -4152,23 +4263,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>-96000000</v>
+        <v>-129300000</v>
       </c>
       <c r="C34">
-        <v>-127000000</v>
+        <v>-161000000</v>
       </c>
       <c r="D34">
-        <v>-248000000</v>
+        <v>-284000000</v>
       </c>
       <c r="E34">
-        <v>-400000000</v>
+        <v>-434700000</v>
       </c>
       <c r="F34">
-        <v>-535000000</v>
+        <v>-578800000</v>
       </c>
       <c r="G34">
         <v>-475500000</v>
@@ -4274,23 +4385,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>321000000</v>
+        <v>287800000</v>
       </c>
       <c r="C35">
-        <v>332000000</v>
+        <v>298400000</v>
       </c>
       <c r="D35">
-        <v>331000000</v>
+        <v>295400000</v>
       </c>
       <c r="E35">
-        <v>231000000</v>
+        <v>196700000</v>
       </c>
       <c r="F35">
-        <v>150000000</v>
+        <v>106400000</v>
       </c>
       <c r="G35">
         <v>106400000</v>
